--- a/2022/Symphony/JULY/13.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/13.07.2022/MC Bank Statement June-2022.xlsx
@@ -9413,11 +9413,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9432,6 +9427,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33881,8 +33881,8 @@
   </sheetPr>
   <dimension ref="A1:Y209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
